--- a/results/si_table.xlsx
+++ b/results/si_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,173 +663,173 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>JAM_MICS3, JAM_MICS4</t>
+          <t>KH2000DHS, KH2005DHS, KH2010DHS, KH2014DHS, KH2021DHS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1980-2007</t>
+          <t>1980-2015</t>
         </is>
       </c>
       <c r="D14">
-        <v>512</v>
+        <v>12086</v>
       </c>
       <c r="E14">
-        <v>29376</v>
+        <v>317646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KH2000DHS, KH2005DHS, KH2010DHS, KH2014DHS, KH2021DHS</t>
+          <t>LAO_MICS4, LAO_MICS6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1980-2013</t>
         </is>
       </c>
       <c r="D15">
-        <v>12086</v>
+        <v>12193</v>
       </c>
       <c r="E15">
-        <v>317646</v>
+        <v>182966</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAO_MICS4, LAO_MICS6</t>
+          <t>MD1997DHS, MD2008DHS, MD2021DHS, MDG_MICS6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1980-2013</t>
+          <t>1980-2015</t>
         </is>
       </c>
       <c r="D16">
-        <v>12193</v>
+        <v>15930</v>
       </c>
       <c r="E16">
-        <v>182966</v>
+        <v>202606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MD1997DHS, MD2008DHS, MD2021DHS, MDG_MICS6</t>
+          <t>MM2016DHS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1982-2012</t>
         </is>
       </c>
       <c r="D17">
-        <v>15930</v>
+        <v>1681</v>
       </c>
       <c r="E17">
-        <v>202606</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MM2016DHS</t>
+          <t>MOZ_MICS3, MZ1997DHS, MZ2003DHS, MZ2011DHS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1982-2012</t>
+          <t>1980-2007</t>
         </is>
       </c>
       <c r="D18">
-        <v>1681</v>
+        <v>14919</v>
       </c>
       <c r="E18">
-        <v>51500</v>
+        <v>153001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MOZ_MICS3, MZ1997DHS, MZ2003DHS, MZ2011DHS</t>
+          <t>NC1998DHS, NC2001DHS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1980-2007</t>
+          <t>1980-1997</t>
         </is>
       </c>
       <c r="D19">
-        <v>14919</v>
+        <v>6563</v>
       </c>
       <c r="E19">
-        <v>153001</v>
+        <v>63451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NC1998DHS, NC2001DHS</t>
+          <t>PAK_MICS4_Balochistan, PAK_MICS5_Gilgit_Baltistan, PAK_MICS5_Khyber_Pakhtunkhwa, PAK_MICS5_Punjab, PAK_MICS5_Sindh, PAK_MICS6_Balochistan, PAK_MICS6_Khyber_Pakhtunkhwa, PAK_MICS6_Punjab, PAK_MICS6_Sindh, PK2006DHS, PK2017DHS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1980-1997</t>
+          <t>1980-2015</t>
         </is>
       </c>
       <c r="D20">
-        <v>6563</v>
+        <v>58840</v>
       </c>
       <c r="E20">
-        <v>63451</v>
+        <v>1280008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PAK_MICS4_Balochistan, PAK_MICS5_Gilgit_Baltistan, PAK_MICS5_Khyber_Pakhtunkhwa, PAK_MICS5_Punjab, PAK_MICS5_Sindh, PAK_MICS6_Balochistan, PAK_MICS6_Khyber_Pakhtunkhwa, PAK_MICS6_Punjab, PAK_MICS6_Sindh, PK2006DHS, PK2017DHS</t>
+          <t>PH1998DHS, PH2003DHS, PH2008DHS, PH2017DHS, PH2022DHS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -838,216 +838,147 @@
         </is>
       </c>
       <c r="D21">
-        <v>58840</v>
+        <v>8753</v>
       </c>
       <c r="E21">
-        <v>1280008</v>
+        <v>322612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PH1998DHS, PH2003DHS, PH2008DHS, PH2017DHS, PH2022DHS</t>
+          <t>SLV_MICS5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1980-2010</t>
         </is>
       </c>
       <c r="D22">
-        <v>8753</v>
+        <v>3027</v>
       </c>
       <c r="E22">
-        <v>322612</v>
+        <v>50149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SLV_MICS5</t>
+          <t>SOM_MICS3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1980-2010</t>
+          <t>1980-2002</t>
         </is>
       </c>
       <c r="D23">
-        <v>3027</v>
+        <v>1819</v>
       </c>
       <c r="E23">
-        <v>50149</v>
+        <v>18499</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOM_MICS3</t>
+          <t>THA_MICS6, THA_MICS6_2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1980-2002</t>
+          <t>1985-2015</t>
         </is>
       </c>
       <c r="D24">
-        <v>1819</v>
+        <v>6637</v>
       </c>
       <c r="E24">
-        <v>18499</v>
+        <v>186124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Turks &amp; Caicos Islands</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TCA_MICS6</t>
+          <t>TL2009DHS, TL2016DHS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1986-2015</t>
+          <t>1980-2012</t>
         </is>
       </c>
       <c r="D25">
-        <v>51</v>
+        <v>3368</v>
       </c>
       <c r="E25">
-        <v>3568</v>
+        <v>94231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>THA_MICS6, THA_MICS6_2</t>
+          <t>YE2013DHS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1985-2015</t>
+          <t>1980-2009</t>
         </is>
       </c>
       <c r="D26">
-        <v>6637</v>
+        <v>6951</v>
       </c>
       <c r="E26">
-        <v>186124</v>
+        <v>79156</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TL2009DHS, TL2016DHS</t>
+          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1980-2012</t>
+          <t>1980-2015</t>
         </is>
       </c>
       <c r="D27">
-        <v>3368</v>
+        <v>15370</v>
       </c>
       <c r="E27">
-        <v>94231</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Tonga</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>TON_MICS6</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1985-2015</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>102</v>
-      </c>
-      <c r="E28">
-        <v>10737</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>VUT_MICS3</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1980-2004</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>448</v>
-      </c>
-      <c r="E29">
-        <v>8795</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1980-2015</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>15370</v>
-      </c>
-      <c r="E30">
         <v>373599</v>
       </c>
     </row>

--- a/results/si_table.xlsx
+++ b/results/si_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,115 +870,69 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SOM_MICS3</t>
+          <t>THA_MICS6, THA_MICS6_2</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1980-2002</t>
+          <t>1985-2015</t>
         </is>
       </c>
       <c r="D23">
-        <v>1819</v>
+        <v>6637</v>
       </c>
       <c r="E23">
-        <v>18499</v>
+        <v>186124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>THA_MICS6, THA_MICS6_2</t>
+          <t>TL2009DHS, TL2016DHS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1985-2015</t>
+          <t>1980-2012</t>
         </is>
       </c>
       <c r="D24">
-        <v>6637</v>
+        <v>3368</v>
       </c>
       <c r="E24">
-        <v>186124</v>
+        <v>94231</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TL2009DHS, TL2016DHS</t>
+          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1980-2012</t>
+          <t>1980-2015</t>
         </is>
       </c>
       <c r="D25">
-        <v>3368</v>
+        <v>15370</v>
       </c>
       <c r="E25">
-        <v>94231</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>YE2013DHS</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1980-2009</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>6951</v>
-      </c>
-      <c r="E26">
-        <v>79156</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1980-2015</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>15370</v>
-      </c>
-      <c r="E27">
         <v>373599</v>
       </c>
     </row>

--- a/results/si_table.xlsx
+++ b/results/si_table.xlsx
@@ -397,14 +397,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D2">
-        <v>79619</v>
+        <v>74412</v>
       </c>
       <c r="E2">
-        <v>534737</v>
+        <v>508528</v>
       </c>
     </row>
     <row r="3">
@@ -420,14 +420,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1980-2012</t>
+          <t>1983-2012</t>
         </is>
       </c>
       <c r="D3">
-        <v>1982</v>
+        <v>1885</v>
       </c>
       <c r="E3">
-        <v>34605</v>
+        <v>32859</v>
       </c>
     </row>
     <row r="4">
@@ -443,14 +443,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1980-2006</t>
+          <t>1983-2006</t>
         </is>
       </c>
       <c r="D4">
-        <v>8819</v>
+        <v>8005</v>
       </c>
       <c r="E4">
-        <v>160155</v>
+        <v>143673</v>
       </c>
     </row>
     <row r="5">
@@ -466,14 +466,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1980-2008</t>
+          <t>1983-2008</t>
         </is>
       </c>
       <c r="D5">
-        <v>1014</v>
+        <v>952</v>
       </c>
       <c r="E5">
-        <v>16906</v>
+        <v>16108</v>
       </c>
     </row>
     <row r="6">
@@ -489,14 +489,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1980-2014</t>
+          <t>1983-2014</t>
         </is>
       </c>
       <c r="D6">
-        <v>2308</v>
+        <v>2238</v>
       </c>
       <c r="E6">
-        <v>51264</v>
+        <v>49323</v>
       </c>
     </row>
     <row r="7">
@@ -512,14 +512,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D7">
-        <v>4666</v>
+        <v>4519</v>
       </c>
       <c r="E7">
-        <v>76613</v>
+        <v>73570</v>
       </c>
     </row>
     <row r="8">
@@ -535,14 +535,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1980-2009</t>
+          <t>1983-2009</t>
         </is>
       </c>
       <c r="D8">
-        <v>16817</v>
+        <v>15256</v>
       </c>
       <c r="E8">
-        <v>186583</v>
+        <v>167303</v>
       </c>
     </row>
     <row r="9">
@@ -558,14 +558,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1980-2011</t>
+          <t>1983-2011</t>
         </is>
       </c>
       <c r="D9">
-        <v>5965</v>
+        <v>5716</v>
       </c>
       <c r="E9">
-        <v>94256</v>
+        <v>89830</v>
       </c>
     </row>
     <row r="10">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D10">
-        <v>16475</v>
+        <v>15678</v>
       </c>
       <c r="E10">
-        <v>225029</v>
+        <v>214342</v>
       </c>
     </row>
     <row r="11">
@@ -604,14 +604,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1980-2008</t>
+          <t>1983-2008</t>
         </is>
       </c>
       <c r="D11">
-        <v>5210</v>
+        <v>4760</v>
       </c>
       <c r="E11">
-        <v>113927</v>
+        <v>104355</v>
       </c>
     </row>
     <row r="12">
@@ -627,14 +627,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1980-2013</t>
+          <t>1983-2013</t>
         </is>
       </c>
       <c r="D12">
-        <v>19416</v>
+        <v>16338</v>
       </c>
       <c r="E12">
-        <v>443555</v>
+        <v>400162</v>
       </c>
     </row>
     <row r="13">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1981-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D13">
-        <v>320571</v>
+        <v>316773</v>
       </c>
       <c r="E13">
-        <v>5414179</v>
+        <v>5343335</v>
       </c>
     </row>
     <row r="14">
@@ -673,14 +673,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D14">
-        <v>12086</v>
+        <v>11049</v>
       </c>
       <c r="E14">
-        <v>317646</v>
+        <v>295044</v>
       </c>
     </row>
     <row r="15">
@@ -696,14 +696,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1980-2013</t>
+          <t>1983-2013</t>
         </is>
       </c>
       <c r="D15">
-        <v>12193</v>
+        <v>11743</v>
       </c>
       <c r="E15">
-        <v>182966</v>
+        <v>175433</v>
       </c>
     </row>
     <row r="16">
@@ -719,14 +719,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D16">
-        <v>15930</v>
+        <v>15384</v>
       </c>
       <c r="E16">
-        <v>202606</v>
+        <v>195257</v>
       </c>
     </row>
     <row r="17">
@@ -742,14 +742,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1982-2012</t>
+          <t>1983-2012</t>
         </is>
       </c>
       <c r="D17">
-        <v>1681</v>
+        <v>1662</v>
       </c>
       <c r="E17">
-        <v>51500</v>
+        <v>50358</v>
       </c>
     </row>
     <row r="18">
@@ -765,14 +765,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1980-2007</t>
+          <t>1983-2007</t>
         </is>
       </c>
       <c r="D18">
-        <v>14919</v>
+        <v>13591</v>
       </c>
       <c r="E18">
-        <v>153001</v>
+        <v>141235</v>
       </c>
     </row>
     <row r="19">
@@ -788,14 +788,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1980-1997</t>
+          <t>1983-1997</t>
         </is>
       </c>
       <c r="D19">
-        <v>6563</v>
+        <v>5608</v>
       </c>
       <c r="E19">
-        <v>63451</v>
+        <v>54587</v>
       </c>
     </row>
     <row r="20">
@@ -811,14 +811,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D20">
-        <v>58840</v>
+        <v>57187</v>
       </c>
       <c r="E20">
-        <v>1280008</v>
+        <v>1255667</v>
       </c>
     </row>
     <row r="21">
@@ -834,14 +834,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D21">
-        <v>8753</v>
+        <v>8214</v>
       </c>
       <c r="E21">
-        <v>322612</v>
+        <v>305033</v>
       </c>
     </row>
     <row r="22">
@@ -857,14 +857,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1980-2010</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="D22">
-        <v>3027</v>
+        <v>2834</v>
       </c>
       <c r="E22">
-        <v>50149</v>
+        <v>47433</v>
       </c>
     </row>
     <row r="23">
@@ -903,14 +903,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1980-2012</t>
+          <t>1983-2012</t>
         </is>
       </c>
       <c r="D24">
-        <v>3368</v>
+        <v>3167</v>
       </c>
       <c r="E24">
-        <v>94231</v>
+        <v>89592</v>
       </c>
     </row>
     <row r="25">
@@ -926,14 +926,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1980-2015</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D25">
-        <v>15370</v>
+        <v>14408</v>
       </c>
       <c r="E25">
-        <v>373599</v>
+        <v>350645</v>
       </c>
     </row>
   </sheetData>

--- a/results/si_table.xlsx
+++ b/results/si_table.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,196 +456,196 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KM2012DHS</t>
+          <t>CRI_MICS4, CRI_MICS6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1983-2008</t>
+          <t>1983-2014</t>
         </is>
       </c>
       <c r="D5">
-        <v>952</v>
+        <v>2238</v>
       </c>
       <c r="E5">
-        <v>16108</v>
+        <v>49323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CRI_MICS4, CRI_MICS6</t>
+          <t>CUB_MICS5, CUB_MICS6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1983-2014</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D6">
-        <v>2238</v>
+        <v>4519</v>
       </c>
       <c r="E6">
-        <v>49323</v>
+        <v>73570</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CUB_MICS5, CUB_MICS6</t>
+          <t>DR2002DHS, DR2007DHS, DR2013DHS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1983-2015</t>
+          <t>1983-2009</t>
         </is>
       </c>
       <c r="D7">
-        <v>4519</v>
+        <v>15256</v>
       </c>
       <c r="E7">
-        <v>73570</v>
+        <v>167303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DR2002DHS, DR2007DHS, DR2013DHS</t>
+          <t>GU2015DHS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1983-2009</t>
+          <t>1983-2011</t>
         </is>
       </c>
       <c r="D8">
-        <v>15256</v>
+        <v>5716</v>
       </c>
       <c r="E8">
-        <v>167303</v>
+        <v>89830</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GU2015DHS</t>
+          <t>HN2005DHS, HN2011DHS, HND_MICS6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1983-2011</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D9">
-        <v>5716</v>
+        <v>15678</v>
       </c>
       <c r="E9">
-        <v>89830</v>
+        <v>214342</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HN2005DHS, HN2011DHS, HND_MICS6</t>
+          <t>HT2000DHS, HT2006DHS, HT2012DHS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1983-2015</t>
+          <t>1983-2008</t>
         </is>
       </c>
       <c r="D10">
-        <v>15678</v>
+        <v>4760</v>
       </c>
       <c r="E10">
-        <v>214342</v>
+        <v>104355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HT2000DHS, HT2006DHS, HT2012DHS</t>
+          <t>ID2003DHS, ID2007DHS, ID2012DHS, ID2017DHS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1983-2008</t>
+          <t>1983-2013</t>
         </is>
       </c>
       <c r="D11">
-        <v>4760</v>
+        <v>16338</v>
       </c>
       <c r="E11">
-        <v>104355</v>
+        <v>400162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ID2003DHS, ID2007DHS, ID2012DHS, ID2017DHS</t>
+          <t>IA2015DHS, IA2020DHS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1983-2013</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D12">
-        <v>16338</v>
+        <v>316773</v>
       </c>
       <c r="E12">
-        <v>400162</v>
+        <v>5343335</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IA2015DHS, IA2020DHS</t>
+          <t>KH2000DHS, KH2005DHS, KH2010DHS, KH2014DHS, KH2021DHS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -654,159 +654,159 @@
         </is>
       </c>
       <c r="D13">
-        <v>316773</v>
+        <v>11049</v>
       </c>
       <c r="E13">
-        <v>5343335</v>
+        <v>295044</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KH2000DHS, KH2005DHS, KH2010DHS, KH2014DHS, KH2021DHS</t>
+          <t>LAO_MICS4, LAO_MICS6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1983-2015</t>
+          <t>1983-2013</t>
         </is>
       </c>
       <c r="D14">
-        <v>11049</v>
+        <v>11743</v>
       </c>
       <c r="E14">
-        <v>295044</v>
+        <v>175433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAO_MICS4, LAO_MICS6</t>
+          <t>MD1997DHS, MD2008DHS, MD2021DHS, MDG_MICS6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1983-2013</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D15">
-        <v>11743</v>
+        <v>15384</v>
       </c>
       <c r="E15">
-        <v>175433</v>
+        <v>195257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Myanmar (Burma)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MD1997DHS, MD2008DHS, MD2021DHS, MDG_MICS6</t>
+          <t>MM2016DHS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1983-2015</t>
+          <t>1983-2012</t>
         </is>
       </c>
       <c r="D16">
-        <v>15384</v>
+        <v>1662</v>
       </c>
       <c r="E16">
-        <v>195257</v>
+        <v>50358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Myanmar (Burma)</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MM2016DHS</t>
+          <t>MOZ_MICS3, MZ1997DHS, MZ2003DHS, MZ2011DHS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1983-2012</t>
+          <t>1983-2007</t>
         </is>
       </c>
       <c r="D17">
-        <v>1662</v>
+        <v>13591</v>
       </c>
       <c r="E17">
-        <v>50358</v>
+        <v>141235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MOZ_MICS3, MZ1997DHS, MZ2003DHS, MZ2011DHS</t>
+          <t>NC1998DHS, NC2001DHS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1983-2007</t>
+          <t>1983-1997</t>
         </is>
       </c>
       <c r="D18">
-        <v>13591</v>
+        <v>5608</v>
       </c>
       <c r="E18">
-        <v>141235</v>
+        <v>54587</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NC1998DHS, NC2001DHS</t>
+          <t>PAK_MICS4_Balochistan, PAK_MICS5_Gilgit_Baltistan, PAK_MICS5_Khyber_Pakhtunkhwa, PAK_MICS5_Punjab, PAK_MICS5_Sindh, PAK_MICS6_Balochistan, PAK_MICS6_Khyber_Pakhtunkhwa, PAK_MICS6_Punjab, PAK_MICS6_Sindh, PK2006DHS, PK2017DHS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1983-1997</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D19">
-        <v>5608</v>
+        <v>57187</v>
       </c>
       <c r="E19">
-        <v>54587</v>
+        <v>1255667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PAK_MICS4_Balochistan, PAK_MICS5_Gilgit_Baltistan, PAK_MICS5_Khyber_Pakhtunkhwa, PAK_MICS5_Punjab, PAK_MICS5_Sindh, PAK_MICS6_Balochistan, PAK_MICS6_Khyber_Pakhtunkhwa, PAK_MICS6_Punjab, PAK_MICS6_Sindh, PK2006DHS, PK2017DHS</t>
+          <t>PH1998DHS, PH2003DHS, PH2008DHS, PH2017DHS, PH2022DHS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -815,124 +815,101 @@
         </is>
       </c>
       <c r="D20">
-        <v>57187</v>
+        <v>8214</v>
       </c>
       <c r="E20">
-        <v>1255667</v>
+        <v>305033</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PH1998DHS, PH2003DHS, PH2008DHS, PH2017DHS, PH2022DHS</t>
+          <t>SLV_MICS5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1983-2015</t>
+          <t>1983-2010</t>
         </is>
       </c>
       <c r="D21">
-        <v>8214</v>
+        <v>2834</v>
       </c>
       <c r="E21">
-        <v>305033</v>
+        <v>47433</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SLV_MICS5</t>
+          <t>THA_MICS6, THA_MICS6_2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1983-2010</t>
+          <t>1985-2015</t>
         </is>
       </c>
       <c r="D22">
-        <v>2834</v>
+        <v>6637</v>
       </c>
       <c r="E22">
-        <v>47433</v>
+        <v>186124</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>THA_MICS6, THA_MICS6_2</t>
+          <t>TL2009DHS, TL2016DHS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1985-2015</t>
+          <t>1983-2012</t>
         </is>
       </c>
       <c r="D23">
-        <v>6637</v>
+        <v>3167</v>
       </c>
       <c r="E23">
-        <v>186124</v>
+        <v>89592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TL2009DHS, TL2016DHS</t>
+          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1983-2012</t>
+          <t>1983-2015</t>
         </is>
       </c>
       <c r="D24">
-        <v>3167</v>
+        <v>14408</v>
       </c>
       <c r="E24">
-        <v>89592</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>ZW1988DHS, ZW1994DHS, ZW1999DHS, ZW2005DHS, ZW2010DHS, ZW2015DHS, ZWE_MICS3, ZWE_MICS5, ZWE_MICS6</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1983-2015</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>14408</v>
-      </c>
-      <c r="E25">
         <v>350645</v>
       </c>
     </row>
